--- a/sriramModel-nelson-melancholic-patientID_33-sims-acth-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_33-sims-acth-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.80148192251768</v>
+        <v>21.71196859302148</v>
       </c>
       <c r="C2">
-        <v>21.86706733867947</v>
+        <v>21.75149612728459</v>
       </c>
       <c r="D2">
-        <v>21.76675689892367</v>
+        <v>21.88164395438866</v>
       </c>
       <c r="E2">
-        <v>21.82449644627143</v>
+        <v>21.78876526072204</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21.82583371645057</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.81169294560543</v>
+        <v>21.63182105202421</v>
       </c>
       <c r="C3">
-        <v>21.93471015996624</v>
+        <v>21.7095282350405</v>
       </c>
       <c r="D3">
-        <v>21.73693297634173</v>
+        <v>21.96677296241752</v>
       </c>
       <c r="E3">
-        <v>21.85202475615661</v>
+        <v>21.7815895163632</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21.85572607278797</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83045933537035</v>
+        <v>21.55944180247045</v>
       </c>
       <c r="C4">
-        <v>22.00291584928989</v>
+        <v>21.67406719686265</v>
       </c>
       <c r="D4">
-        <v>21.71047050285092</v>
+        <v>22.05532664199398</v>
       </c>
       <c r="E4">
-        <v>21.88254866372695</v>
+        <v>21.77838961317056</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>21.88963150156514</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.85760762130196</v>
+        <v>21.49473178785332</v>
       </c>
       <c r="C5">
-        <v>22.07167197338119</v>
+        <v>21.64508403586316</v>
       </c>
       <c r="D5">
-        <v>21.68731487276068</v>
+        <v>22.14724481120523</v>
       </c>
       <c r="E5">
-        <v>21.91603253542059</v>
+        <v>21.77908555063024</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21.92750547286252</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.89296438769345</v>
+        <v>21.43760473880999</v>
       </c>
       <c r="C6">
-        <v>22.14096626836958</v>
+        <v>21.62255029185889</v>
       </c>
       <c r="D6">
-        <v>21.66741431310881</v>
+        <v>22.24246777198172</v>
       </c>
       <c r="E6">
-        <v>21.95244135029671</v>
+        <v>21.78360028893619</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21.9693046559055</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.9363560728342</v>
+        <v>21.38798458051562</v>
       </c>
       <c r="C7">
-        <v>22.21078662752445</v>
+        <v>21.60643796995038</v>
       </c>
       <c r="D7">
-        <v>21.65071962897814</v>
+        <v>22.34093591674557</v>
       </c>
       <c r="E7">
-        <v>21.99174068083991</v>
+        <v>21.79185970556922</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>22.0149867308385</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.98760877460216</v>
+        <v>21.3458033593095</v>
       </c>
       <c r="C8">
-        <v>22.28112108861425</v>
+        <v>21.59671952514862</v>
       </c>
       <c r="D8">
-        <v>21.63718397961134</v>
+        <v>22.44258951839692</v>
       </c>
       <c r="E8">
-        <v>22.03389667433269</v>
+        <v>21.8037923077075</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>22.06451045080736</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.04654806132788</v>
+        <v>21.31099981446766</v>
       </c>
       <c r="C9">
-        <v>22.35195782079566</v>
+        <v>21.59336783895722</v>
       </c>
       <c r="D9">
-        <v>21.62676268052241</v>
+        <v>22.54736851066399</v>
       </c>
       <c r="E9">
-        <v>22.07887603468217</v>
+        <v>21.81932909054314</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>22.11783556913941</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.11299878684266</v>
+        <v>21.28351823618758</v>
       </c>
       <c r="C10">
-        <v>22.42328511094169</v>
+        <v>21.59635619774144</v>
       </c>
       <c r="D10">
-        <v>21.61941302777786</v>
+        <v>22.65521222094863</v>
       </c>
       <c r="E10">
-        <v>22.12664600467437</v>
+        <v>21.83840342760399</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>22.1749227310597</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.18678490875229</v>
+        <v>21.26330751281119</v>
       </c>
       <c r="C11">
-        <v>22.49509134937412</v>
+        <v>21.60565826071259</v>
       </c>
       <c r="D11">
-        <v>21.61509414125971</v>
+        <v>22.76605909920395</v>
       </c>
       <c r="E11">
-        <v>22.17717434858677</v>
+        <v>21.86095092577834</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>22.23573340226398</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.26772930906965</v>
+        <v>21.25032040337893</v>
       </c>
       <c r="C12">
-        <v>22.56736501490769</v>
+        <v>21.62124806864517</v>
       </c>
       <c r="D12">
-        <v>21.61376682423872</v>
+        <v>22.87984645343965</v>
       </c>
       <c r="E12">
-        <v>22.23042933510187</v>
+        <v>21.88690929240795</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>22.3002298051799</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.3556536164008</v>
+        <v>21.24451295857374</v>
       </c>
       <c r="C13">
-        <v>22.64009465911606</v>
+        <v>21.64309998689556</v>
       </c>
       <c r="D13">
-        <v>21.61539343701725</v>
+        <v>22.99651016049367</v>
       </c>
       <c r="E13">
-        <v>22.28637972045704</v>
+        <v>21.91621822397362</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>22.36837489163436</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.45037802895753</v>
+        <v>21.24584399898889</v>
       </c>
       <c r="C14">
-        <v>22.71326888973115</v>
+        <v>21.67118869458972</v>
       </c>
       <c r="D14">
-        <v>21.61993778274478</v>
+        <v>23.1159843666436</v>
       </c>
       <c r="E14">
-        <v>22.34499473176371</v>
+        <v>21.94881930568166</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>22.44013227760118</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.55172113771861</v>
+        <v>21.25427467138647</v>
       </c>
       <c r="C15">
-        <v>22.78687635306894</v>
+        <v>21.70548914280931</v>
       </c>
       <c r="D15">
-        <v>21.62736500378039</v>
+        <v>23.23820107840312</v>
       </c>
       <c r="E15">
-        <v>22.40624405042356</v>
+        <v>21.98465591389527</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>22.51546615027972</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.65949974911201</v>
+        <v>21.26976807647582</v>
       </c>
       <c r="C16">
-        <v>22.86090571537006</v>
+        <v>21.74597651972406</v>
       </c>
       <c r="D16">
-        <v>21.63764148721214</v>
+        <v>23.36309005533687</v>
       </c>
       <c r="E16">
-        <v>22.47009779556365</v>
+        <v>22.02367312677365</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>22.5943412084905</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.77352870663173</v>
+        <v>21.29228893655084</v>
       </c>
       <c r="C17">
-        <v>22.93534564292936</v>
+        <v>21.79262622897259</v>
       </c>
       <c r="D17">
-        <v>21.65073477831403</v>
+        <v>23.49057833668938</v>
       </c>
       <c r="E17">
-        <v>22.53652650740486</v>
+        <v>22.06581763759339</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>22.67672262952996</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.89362071083908</v>
+        <v>21.32180328759361</v>
       </c>
       <c r="C18">
-        <v>23.01018478087618</v>
+        <v>21.84541384786358</v>
       </c>
       <c r="D18">
-        <v>21.66661350088377</v>
+        <v>23.62058977630797</v>
       </c>
       <c r="E18">
-        <v>22.60550113046891</v>
+        <v>22.11103767471049</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>22.762575936571</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.01958613723026</v>
+        <v>21.35827818428741</v>
       </c>
       <c r="C19">
-        <v>23.08541173045194</v>
+        <v>21.90431508965067</v>
       </c>
       <c r="D19">
-        <v>21.68524728350971</v>
+        <v>23.75304506695305</v>
       </c>
       <c r="E19">
-        <v>22.67699299651844</v>
+        <v>22.15928292781643</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>22.85186695357178</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.15123285148065</v>
+        <v>21.40168141954116</v>
       </c>
       <c r="C20">
-        <v>23.16101502461435</v>
+        <v>21.96930574543886</v>
       </c>
       <c r="D20">
-        <v>21.70660669091705</v>
+        <v>23.88786058303094</v>
       </c>
       <c r="E20">
-        <v>22.7509738071111</v>
+        <v>22.21050447818107</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>22.94456173449145</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.28836602160164</v>
+        <v>21.45198124914692</v>
       </c>
       <c r="C21">
-        <v>23.23698310177769</v>
+        <v>22.04036162879776</v>
       </c>
       <c r="D21">
-        <v>21.73066315961408</v>
+        <v>24.02494851876265</v>
       </c>
       <c r="E21">
-        <v>22.8274156156322</v>
+        <v>22.26465473283842</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>23.04062648877428</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.43078792657007</v>
+        <v>21.50914610852998</v>
       </c>
       <c r="C22">
-        <v>23.3133042774788</v>
+        <v>22.11745851143828</v>
       </c>
       <c r="D22">
-        <v>21.75738893710785</v>
+        <v>24.16421610158505</v>
       </c>
       <c r="E22">
-        <v>22.90629080865179</v>
+        <v>22.32168736239712</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>23.14002745099227</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.57829776101443</v>
+        <v>21.57314431756285</v>
       </c>
       <c r="C23">
-        <v>23.38996671372649</v>
+        <v>22.20057205164311</v>
       </c>
       <c r="D23">
-        <v>21.78675702399537</v>
+        <v>24.30556530891726</v>
       </c>
       <c r="E23">
-        <v>22.98757208642812</v>
+        <v>22.38155724212563</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>23.24273078979359</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.7306914355629</v>
+        <v>21.64394377278073</v>
       </c>
       <c r="C24">
-        <v>23.46695838576985</v>
+        <v>22.28967770672946</v>
       </c>
       <c r="D24">
-        <v>21.8187411182486</v>
+        <v>24.44889230196807</v>
       </c>
       <c r="E24">
-        <v>23.07123244235027</v>
+        <v>22.444220395918</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>23.34870253663468</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.88776137248536</v>
+        <v>21.72151160789016</v>
       </c>
       <c r="C25">
-        <v>23.54426704598222</v>
+        <v>22.3847506361192</v>
       </c>
       <c r="D25">
-        <v>21.85331556100943</v>
+        <v>24.59408692781281</v>
       </c>
       <c r="E25">
-        <v>23.15724514107997</v>
+        <v>22.50963394274192</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>23.45790844187085</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>24.04929629628586</v>
+        <v>21.805813824649</v>
       </c>
       <c r="C26">
-        <v>23.62188018451955</v>
+        <v>22.48576558889193</v>
       </c>
       <c r="D26">
-        <v>21.89045528318676</v>
+        <v>24.74103208988005</v>
       </c>
       <c r="E26">
-        <v>23.2455836951107</v>
+        <v>22.57775604433194</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>23.57031382302355</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>24.2150810189324</v>
+        <v>21.89681487374643</v>
       </c>
       <c r="C27">
-        <v>23.69978498636633</v>
+        <v>22.59269677778516</v>
       </c>
       <c r="D27">
-        <v>21.93013575210319</v>
+        <v>24.88960326768105</v>
       </c>
       <c r="E27">
-        <v>23.33622183940992</v>
+        <v>22.64854585767416</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>23.68588341496402</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>24.3848962194451</v>
+        <v>21.99447719727762</v>
       </c>
       <c r="C28">
-        <v>23.77796828432913</v>
+        <v>22.7055177181382</v>
       </c>
       <c r="D28">
-        <v>21.97233291736927</v>
+        <v>25.03966776380498</v>
       </c>
       <c r="E28">
-        <v>23.42913350375126</v>
+        <v>22.72196348444904</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>23.80458128770511</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>24.55851821760394</v>
+        <v>22.09876070985807</v>
       </c>
       <c r="C29">
-        <v>23.85641650747647</v>
+        <v>22.82420105517904</v>
       </c>
       <c r="D29">
-        <v>22.01702315506495</v>
+        <v>25.19108420934514</v>
       </c>
       <c r="E29">
-        <v>23.52429278226804</v>
+        <v>22.79796992378924</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>23.92637058318154</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>24.73571874158621</v>
+        <v>22.20962220775773</v>
       </c>
       <c r="C30">
-        <v>23.93511562445151</v>
+        <v>22.94871836241236</v>
       </c>
       <c r="D30">
-        <v>22.0641832091746</v>
+        <v>25.3437018651366</v>
       </c>
       <c r="E30">
-        <v>23.62167389966756</v>
+        <v>22.87652702465282</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>24.05121331846841</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>24.91626468940222</v>
+        <v>22.327014688287</v>
       </c>
       <c r="C31">
-        <v>24.01405108100015</v>
+        <v>23.07903991174231</v>
       </c>
       <c r="D31">
-        <v>22.11379012904774</v>
+        <v>25.49736000736903</v>
       </c>
       <c r="E31">
-        <v>23.72125117343068</v>
+        <v>22.95759743762541</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>24.17907012748319</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>25.09991788406933</v>
+        <v>22.45088657770624</v>
       </c>
       <c r="C32">
-        <v>24.09320773095777</v>
+        <v>23.21513438424476</v>
       </c>
       <c r="D32">
-        <v>22.16582120143089</v>
+        <v>25.65188731120631</v>
       </c>
       <c r="E32">
-        <v>23.82299897118877</v>
+        <v>23.04114456530639</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>24.30990015997838</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>25.28643482255108</v>
+        <v>22.58118084537161</v>
       </c>
       <c r="C33">
-        <v>24.17256975982896</v>
+        <v>23.35696855381219</v>
       </c>
       <c r="D33">
-        <v>22.22025387532346</v>
+        <v>25.8071011947052</v>
       </c>
       <c r="E33">
-        <v>23.9268916622963</v>
+        <v>23.12713251017621</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>24.44366059460578</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>25.47556641859562</v>
+        <v>22.71783398622513</v>
       </c>
       <c r="C34">
-        <v>24.25212059993919</v>
+        <v>23.50450692105678</v>
       </c>
       <c r="D34">
-        <v>22.27706567754375</v>
+        <v>25.9628072256094</v>
       </c>
       <c r="E34">
-        <v>24.03290356239848</v>
+        <v>23.2155260235001</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>24.58030635185788</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>25.66705773973683</v>
+        <v>22.86077485167672</v>
       </c>
       <c r="C35">
-        <v>24.33184283600021</v>
+        <v>23.65771128763532</v>
       </c>
       <c r="D35">
-        <v>22.33623411641073</v>
+        <v>26.11879849695541</v>
       </c>
       <c r="E35">
-        <v>24.1410088695437</v>
+        <v>23.30629043067963</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>24.71978968182295</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>25.86064773888085</v>
+        <v>23.00992330655328</v>
       </c>
       <c r="C36">
-        <v>24.41171809972185</v>
+        <v>23.81654022620259</v>
       </c>
       <c r="D36">
-        <v>22.3977365703565</v>
+        <v>26.27485511301918</v>
       </c>
       <c r="E36">
-        <v>24.25118159005416</v>
+        <v>23.39939156787506</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>24.86205993264076</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>26.05606898109371</v>
+        <v>23.16518867650227</v>
       </c>
       <c r="C37">
-        <v>24.49172695189605</v>
+        <v>23.98094849403435</v>
       </c>
       <c r="D37">
-        <v>22.46155015751206</v>
+        <v>26.43074364946547</v>
       </c>
       <c r="E37">
-        <v>24.36339545195148</v>
+        <v>23.49479570383277</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>25.00706273077422</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>26.25304736644187</v>
+        <v>23.32646800846693</v>
       </c>
       <c r="C38">
-        <v>24.57184875006902</v>
+        <v>24.15088635572019</v>
       </c>
       <c r="D38">
-        <v>22.52765158134619</v>
+        <v>26.58621671246658</v>
       </c>
       <c r="E38">
-        <v>24.47762380322427</v>
+        <v>23.59246944231893</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>25.15473945899186</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>26.45130185002309</v>
+        <v>23.49364402019749</v>
       </c>
       <c r="C39">
-        <v>24.65206149951191</v>
+        <v>24.32629878379967</v>
       </c>
       <c r="D39">
-        <v>22.59601694621422</v>
+        <v>26.74101269614586</v>
       </c>
       <c r="E39">
-        <v>24.5938394915725</v>
+        <v>23.69237959184699</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>25.30502666660188</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>26.65054416067252</v>
+        <v>23.66658278811969</v>
       </c>
       <c r="C40">
-        <v>24.73234168526862</v>
+        <v>24.50712447483761</v>
       </c>
       <c r="D40">
-        <v>22.66662153509003</v>
+        <v>26.89485531075577</v>
       </c>
       <c r="E40">
-        <v>24.71201472143883</v>
+        <v>23.79449301012382</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>25.4578556055903</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>26.85047852024854</v>
+        <v>23.84513110644769</v>
       </c>
       <c r="C41">
-        <v>24.81266408177495</v>
+        <v>24.69329473595158</v>
       </c>
       <c r="D41">
-        <v>22.73943953981546</v>
+        <v>27.04745369709548</v>
       </c>
       <c r="E41">
-        <v>24.83212088305719</v>
+        <v>23.89877640560197</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>25.61315045343544</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>27.05080136590892</v>
+        <v>24.02911348770459</v>
       </c>
       <c r="C42">
-        <v>24.89300153673296</v>
+        <v>24.88473221467254</v>
       </c>
       <c r="D42">
-        <v>22.81444373164135</v>
+        <v>27.19850241332574</v>
       </c>
       <c r="E42">
-        <v>24.95412834696494</v>
+        <v>24.00519607202524</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>25.77082759329053</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>27.25120107841299</v>
+        <v>24.21832876975914</v>
       </c>
       <c r="C43">
-        <v>24.97332472482848</v>
+        <v>25.08134936089531</v>
       </c>
       <c r="D43">
-        <v>22.89160505670133</v>
+        <v>27.34768135019032</v>
       </c>
       <c r="E43">
-        <v>25.07800621568567</v>
+        <v>24.11371752589838</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>25.93079447422729</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>27.45135772019721</v>
+        <v>24.41254629787592</v>
       </c>
       <c r="C44">
-        <v>25.05360186618417</v>
+        <v>25.28304654418218</v>
       </c>
       <c r="D44">
-        <v>22.97089213700249</v>
+        <v>27.49465662893117</v>
       </c>
       <c r="E44">
-        <v>25.2037220220516</v>
+        <v>24.22430502375532</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>26.09294807673089</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>27.65094278788092</v>
+        <v>24.61150164879178</v>
       </c>
       <c r="C45">
-        <v>25.13379840336269</v>
+        <v>25.48970991378444</v>
       </c>
       <c r="D45">
-        <v>23.05227065245192</v>
+        <v>27.63908070939647</v>
       </c>
       <c r="E45">
-        <v>25.33124136089772</v>
+        <v>24.33692085982523</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>26.2571730632547</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>27.84961898491646</v>
+        <v>24.81489191963474</v>
       </c>
       <c r="C46">
-        <v>25.21387662953107</v>
+        <v>25.7012089550904</v>
       </c>
       <c r="D46">
-        <v>23.13570257311291</v>
+        <v>27.78059347016277</v>
       </c>
       <c r="E46">
-        <v>25.46052743718932</v>
+        <v>24.45152444010418</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>26.42333962135034</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>28.04704002136121</v>
+        <v>25.02237053982064</v>
       </c>
       <c r="C47">
-        <v>25.29379525883299</v>
+        <v>25.91739347997041</v>
       </c>
       <c r="D47">
-        <v>23.22114520282237</v>
+        <v>27.91882358947992</v>
       </c>
       <c r="E47">
-        <v>25.59154050899534</v>
+        <v>24.56807099454781</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>26.59130108171094</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>28.24285044926577</v>
+        <v>25.23354162370256</v>
       </c>
       <c r="C48">
-        <v>25.37350892814079</v>
+        <v>26.13808997156912</v>
       </c>
       <c r="D48">
-        <v>23.30854998561153</v>
+        <v>28.05338916957835</v>
       </c>
       <c r="E48">
-        <v>25.72423719734262</v>
+        <v>24.68650977333257</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>26.76089093816339</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>28.43668554396648</v>
+        <v>25.44795400203852</v>
       </c>
       <c r="C49">
-        <v>25.45296761704958</v>
+        <v>26.36309738886608</v>
       </c>
       <c r="D49">
-        <v>23.39786101408063</v>
+        <v>28.18390029856279</v>
       </c>
       <c r="E49">
-        <v>25.85856962783778</v>
+        <v>24.8067816249931</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>26.93191944504054</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>28.62817124370536</v>
+        <v>25.66509498626089</v>
       </c>
       <c r="C50">
-        <v>25.53211597003416</v>
+        <v>26.5921824167999</v>
       </c>
       <c r="D50">
-        <v>23.48901316444908</v>
+        <v>28.30996070504725</v>
       </c>
       <c r="E50">
-        <v>25.99448435848128</v>
+        <v>24.92881573443517</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>27.10416959685184</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>28.81692416248504</v>
+        <v>25.88438405559093</v>
       </c>
       <c r="C51">
-        <v>25.6108925010128</v>
+        <v>26.82507352700553</v>
       </c>
       <c r="D51">
-        <v>23.58192976558092</v>
+        <v>28.43116936978407</v>
       </c>
       <c r="E51">
-        <v>26.13192103497645</v>
+        <v>25.05252536919141</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>27.27739243510771</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>29.00255169397752</v>
+        <v>26.10516670832904</v>
       </c>
       <c r="C52">
-        <v>25.68922865671984</v>
+        <v>27.06145406181053</v>
       </c>
       <c r="D52">
-        <v>23.6765196886948</v>
+        <v>28.54712451477407</v>
       </c>
       <c r="E52">
-        <v>26.27081069875575</v>
+        <v>25.17780242155212</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>27.45130221366999</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>29.20467658687847</v>
+        <v>26.35971851139459</v>
       </c>
       <c r="C53">
-        <v>25.79554083894254</v>
+        <v>27.32939193768236</v>
       </c>
       <c r="D53">
-        <v>23.80714492764856</v>
+        <v>28.6915989370289</v>
       </c>
       <c r="E53">
-        <v>26.4337338520434</v>
+        <v>25.33720315391284</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>27.65290503696638</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>29.44119011754731</v>
+        <v>26.67827236631986</v>
       </c>
       <c r="C54">
-        <v>25.95733570151945</v>
+        <v>27.65608600184831</v>
       </c>
       <c r="D54">
-        <v>24.00759512650144</v>
+        <v>28.89503180097558</v>
       </c>
       <c r="E54">
-        <v>26.64286144611521</v>
+        <v>25.5625459322409</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>27.90816790477978</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>29.70906275541795</v>
+        <v>27.05667829557821</v>
       </c>
       <c r="C55">
-        <v>26.17322853975727</v>
+        <v>28.0396632310609</v>
       </c>
       <c r="D55">
-        <v>24.27683697395666</v>
+        <v>29.15199110721182</v>
       </c>
       <c r="E55">
-        <v>26.89747782613919</v>
+        <v>25.85252514837639</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>28.21502529136784</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>30.00522095707349</v>
+        <v>27.49025912734624</v>
       </c>
       <c r="C56">
-        <v>26.4418566552956</v>
+        <v>28.47791363597085</v>
       </c>
       <c r="D56">
-        <v>24.61367855199608</v>
+        <v>29.45698595400101</v>
       </c>
       <c r="E56">
-        <v>27.1968148486214</v>
+        <v>26.20565212736322</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>28.57111844019</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>30.32654851506575</v>
+        <v>27.97378538383748</v>
       </c>
       <c r="C57">
-        <v>26.76182787520783</v>
+        <v>28.96822725613663</v>
       </c>
       <c r="D57">
-        <v>25.01669315649135</v>
+        <v>29.8044618795763</v>
       </c>
       <c r="E57">
-        <v>27.54002380685846</v>
+        <v>26.62014451523405</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>28.97373090926235</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>30.66988970462421</v>
+        <v>28.50146644111787</v>
       </c>
       <c r="C58">
-        <v>27.13167607532166</v>
+        <v>29.50751655869168</v>
       </c>
       <c r="D58">
-        <v>25.48413760916449</v>
+        <v>30.18881292994701</v>
       </c>
       <c r="E58">
-        <v>27.92614144266231</v>
+        <v>27.09380643379171</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>29.41971988584558</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>31.03205430281414</v>
+        <v>29.0669585837986</v>
       </c>
       <c r="C59">
-        <v>27.54981836364794</v>
+        <v>30.09213018758625</v>
       </c>
       <c r="D59">
-        <v>26.01385826104983</v>
+        <v>30.60440345554464</v>
       </c>
       <c r="E59">
-        <v>28.35404797236439</v>
+        <v>27.62389414092759</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>29.90544624027269</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31.40982462658619</v>
+        <v>29.66339888500959</v>
       </c>
       <c r="C60">
-        <v>28.01451022417121</v>
+        <v>30.7177592086927</v>
       </c>
       <c r="D60">
-        <v>26.60318092305252</v>
+        <v>31.04559630651774</v>
       </c>
       <c r="E60">
-        <v>28.82241478343193</v>
+        <v>28.20697479345543</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>30.4267103140172</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31.79996478737012</v>
+        <v>30.28346687104212</v>
       </c>
       <c r="C61">
-        <v>28.52379560985866</v>
+        <v>31.37933779674382</v>
       </c>
       <c r="D61">
-        <v>27.24878312572531</v>
+        <v>31.50678536829088</v>
       </c>
       <c r="E61">
-        <v>29.32963925615061</v>
+        <v>28.83877610292029</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>30.97869025593331</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>32.19923239311682</v>
+        <v>30.91948185173698</v>
       </c>
       <c r="C62">
-        <v>29.07544917873316</v>
+        <v>32.07094589285722</v>
       </c>
       <c r="D62">
-        <v>27.94654975426229</v>
+        <v>31.98243093575383</v>
       </c>
       <c r="E62">
-        <v>29.87376418458742</v>
+        <v>29.51404223524866</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>31.55589792017016</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>32.60439294336734</v>
+        <v>31.56353205907125</v>
       </c>
       <c r="C63">
-        <v>29.66690782726227</v>
+        <v>32.78572460534509</v>
       </c>
       <c r="D63">
-        <v>28.69141696417104</v>
+        <v>32.46710206032301</v>
       </c>
       <c r="E63">
-        <v>30.45237975587494</v>
+        <v>30.22640970871428</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>32.15216636458984</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>33.01223715431536</v>
+        <v>32.20763652163873</v>
       </c>
       <c r="C64">
-        <v>30.29518856121401</v>
+        <v>33.51582086967864</v>
       </c>
       <c r="D64">
-        <v>29.4772148486635</v>
+        <v>32.95551643601188</v>
       </c>
       <c r="E64">
-        <v>31.06250736003224</v>
+        <v>30.96832904136012</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>32.76067625592199</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>33.41960141219011</v>
+        <v>32.84393539455768</v>
       </c>
       <c r="C65">
-        <v>30.95678975061346</v>
+        <v>34.25238462492722</v>
       </c>
       <c r="D65">
-        <v>30.29652675613792</v>
+        <v>33.44258389301983</v>
       </c>
       <c r="E65">
-        <v>31.7004671338986</v>
+        <v>31.73105853651979</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>33.37403612703735</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>33.82339147550739</v>
+        <v>33.46489753077454</v>
       </c>
       <c r="C66">
-        <v>31.64757324678338</v>
+        <v>34.98564540317003</v>
       </c>
       <c r="D66">
-        <v>31.14059196133235</v>
+        <v>33.92345181136407</v>
       </c>
       <c r="E66">
-        <v>32.36173565679711</v>
+        <v>32.50476466334182</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>33.98443200628017</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>34.22060941975155</v>
+        <v>34.06353276802741</v>
       </c>
       <c r="C67">
-        <v>32.36262621164252</v>
+        <v>35.70510496012212</v>
       </c>
       <c r="D67">
-        <v>31.99928700795014</v>
+        <v>34.39355019765463</v>
       </c>
       <c r="E67">
-        <v>33.04080707930886</v>
+        <v>33.27874206161387</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>34.58384583415027</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>34.60838363214923</v>
+        <v>34.63359293429375</v>
       </c>
       <c r="C68">
-        <v>33.09610467678102</v>
+        <v>36.39986248861993</v>
       </c>
       <c r="D68">
-        <v>32.86122642215844</v>
+        <v>34.84863645907075</v>
       </c>
       <c r="E68">
-        <v>33.73108018540069</v>
+        <v>34.04177637350463</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>35.16434171213438</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>34.98400141286278</v>
+        <v>35.16974481017349</v>
       </c>
       <c r="C69">
-        <v>33.84106711988106</v>
+        <v>37.05908721214563</v>
       </c>
       <c r="D69">
-        <v>33.71402120201245</v>
+        <v>35.28483905928525</v>
       </c>
       <c r="E69">
-        <v>34.42480439495717</v>
+        <v>34.78262837202332</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>35.7183965403937</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>35.34494342277627</v>
+        <v>35.66769995641867</v>
       </c>
       <c r="C70">
-        <v>34.58931744902072</v>
+        <v>37.67261684912249</v>
       </c>
       <c r="D70">
-        <v>34.54471875317516</v>
+        <v>35.69869896939255</v>
       </c>
       <c r="E70">
-        <v>35.11312665727583</v>
+        <v>35.49060177267782</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>36.23924624592674</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>35.68891884962478</v>
+        <v>36.12429052012394</v>
       </c>
       <c r="C71">
-        <v>35.33129436550161</v>
+        <v>38.23162127520607</v>
       </c>
       <c r="D71">
-        <v>35.34041812738951</v>
+        <v>36.08720776771659</v>
       </c>
       <c r="E71">
-        <v>35.78628350009906</v>
+        <v>36.15612725072224</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>36.72120317499787</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>36.01389977354306</v>
+        <v>36.53748542094343</v>
       </c>
       <c r="C72">
-        <v>36.05606809508864</v>
+        <v>38.72923865989841</v>
       </c>
       <c r="D72">
-        <v>36.08901232537295</v>
+        <v>36.44784101301821</v>
       </c>
       <c r="E72">
-        <v>36.43397162517782</v>
+        <v>36.77128210127341</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>37.15990600755153</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>36.31815285036243</v>
+        <v>36.90634846425728</v>
       </c>
       <c r="C73">
-        <v>36.75153087461304</v>
+        <v>39.16105809855075</v>
       </c>
       <c r="D73">
-        <v>36.77996550639497</v>
+        <v>36.77858594641054</v>
       </c>
       <c r="E73">
-        <v>37.04590116888767</v>
+        <v>37.33016965583002</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>37.55246136171183</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>36.60026616659709</v>
+        <v>37.2309456938479</v>
       </c>
       <c r="C74">
-        <v>37.40487962040984</v>
+        <v>39.52535748675042</v>
       </c>
       <c r="D74">
-        <v>37.40500369047682</v>
+        <v>37.07795964660566</v>
       </c>
       <c r="E74">
-        <v>37.61248900197073</v>
+        <v>37.82910673539396</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>37.89747016354933</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>36.85916903589094</v>
+        <v>37.51221392325833</v>
       </c>
       <c r="C75">
-        <v>38.00346159151535</v>
+        <v>39.82304050778301</v>
       </c>
       <c r="D75">
-        <v>37.95859861956023</v>
+        <v>37.34501747178443</v>
       </c>
       <c r="E75">
-        <v>38.1255967372551</v>
+        <v>38.26660440427442</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>38.19493889357694</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>37.09414267910106</v>
+        <v>37.75180489052048</v>
       </c>
       <c r="C76">
-        <v>38.5359590758437</v>
+        <v>40.05729199677359</v>
       </c>
       <c r="D76">
-        <v>38.43816137600614</v>
+        <v>37.57935244060815</v>
       </c>
       <c r="E76">
-        <v>38.57918081653684</v>
+        <v>38.64316536910108</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>38.44609402185753</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>37.30482020556129</v>
+        <v>37.95191971619045</v>
       </c>
       <c r="C77">
-        <v>38.99372889810481</v>
+        <v>40.23303353290613</v>
       </c>
       <c r="D77">
-        <v>38.84392503294404</v>
+        <v>37.78107864379694</v>
       </c>
       <c r="E77">
-        <v>38.9697221293915</v>
+        <v>38.9609495039286</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>38.65313893559088</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>37.49117508254504</v>
+        <v>38.11514658054782</v>
       </c>
       <c r="C78">
-        <v>39.37195312138189</v>
+        <v>40.35629435119569</v>
       </c>
       <c r="D78">
-        <v>39.17856191774583</v>
+        <v>37.950799283819</v>
       </c>
       <c r="E78">
-        <v>39.29634821340156</v>
+        <v>39.22337093410732</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>38.81898572725559</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>37.65349826399888</v>
+        <v>38.24431176008059</v>
       </c>
       <c r="C79">
-        <v>39.67021841550345</v>
+        <v>40.43360614920471</v>
       </c>
       <c r="D79">
-        <v>39.44662818059382</v>
+        <v>38.08956121065678</v>
       </c>
       <c r="E79">
-        <v>39.56063768480596</v>
+        <v>39.4346863449619</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>38.94699521955109</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>37.79236520317238</v>
+        <v>38.3423505916259</v>
       </c>
       <c r="C80">
-        <v>39.89230318581765</v>
+        <v>40.47150012844479</v>
       </c>
       <c r="D80">
-        <v>39.65394397686925</v>
+        <v>38.19879427355836</v>
       </c>
       <c r="E80">
-        <v>39.76617309545763</v>
+        <v>39.59961993590598</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>39.04074723640611</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>37.90859491625519</v>
+        <v>38.41220173431392</v>
       </c>
       <c r="C81">
-        <v>40.04525025668195</v>
+        <v>40.47614623385644</v>
       </c>
       <c r="D81">
-        <v>39.80700381408391</v>
+        <v>38.28023876873445</v>
       </c>
       <c r="E81">
-        <v>39.91795542115675</v>
+        <v>39.72305219390407</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>39.10385383727282</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>38.0032039267934</v>
+        <v>38.45672533763371</v>
       </c>
       <c r="C82">
-        <v>40.1380561321506</v>
+        <v>40.45312979791655</v>
       </c>
       <c r="D82">
-        <v>39.9124805213633</v>
+        <v>38.33586570505313</v>
       </c>
       <c r="E82">
-        <v>40.0217990197018</v>
+        <v>39.80978283638692</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>39.1398192119066</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>38.07735819495095</v>
+        <v>38.47864362442831</v>
       </c>
       <c r="C83">
-        <v>40.18037173137556</v>
+        <v>40.4073446874093</v>
       </c>
       <c r="D83">
-        <v>39.97685184127908</v>
+        <v>38.36779385317791</v>
       </c>
       <c r="E83">
-        <v>40.08379854534193</v>
+        <v>39.86436570557098</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>39.15194353307724</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>38.13232600166958</v>
+        <v>38.48050133820109</v>
       </c>
       <c r="C84">
-        <v>40.18149296088888</v>
+        <v>40.34297420160876</v>
       </c>
       <c r="D84">
-        <v>40.00615069307847</v>
+        <v>38.37821021890093</v>
       </c>
       <c r="E84">
-        <v>40.10991786712078</v>
+        <v>39.8910060554061</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>39.14326443599396</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>38.16943428359242</v>
+        <v>38.46464255537741</v>
       </c>
       <c r="C85">
-        <v>40.14973895452545</v>
+        <v>40.26352687951434</v>
       </c>
       <c r="D85">
-        <v>40.00582267173022</v>
+        <v>38.36929775859576</v>
       </c>
       <c r="E85">
-        <v>40.10571279707657</v>
+        <v>39.89350734746355</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>39.11652825713598</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>38.18958196820495</v>
+        <v>38.4330369965577</v>
       </c>
       <c r="C86">
-        <v>40.09205071833527</v>
+        <v>40.17186912259218</v>
       </c>
       <c r="D86">
-        <v>39.98048086879696</v>
+        <v>38.34289697043053</v>
       </c>
       <c r="E86">
-        <v>40.07597594981974</v>
+        <v>39.8750235576754</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>39.07402565332045</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>38.19382646647491</v>
+        <v>38.38752072384294</v>
       </c>
       <c r="C87">
-        <v>40.01419476608306</v>
+        <v>40.0703576106249</v>
       </c>
       <c r="D87">
-        <v>39.93421329760267</v>
+        <v>38.30087840985539</v>
       </c>
       <c r="E87">
-        <v>40.0250066569311</v>
+        <v>39.83842236926453</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>39.01783139744913</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>38.18368029559394</v>
+        <v>38.32990893104696</v>
       </c>
       <c r="C88">
-        <v>39.92088638613877</v>
+        <v>39.96095004941697</v>
       </c>
       <c r="D88">
-        <v>39.87069173744281</v>
+        <v>38.24527807179981</v>
       </c>
       <c r="E88">
-        <v>39.95668039726755</v>
+        <v>39.78644041431388</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>38.94993295841485</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>38.16055274259472</v>
+        <v>38.26179527993745</v>
       </c>
       <c r="C89">
-        <v>39.81578833311794</v>
+        <v>39.84521553700198</v>
       </c>
       <c r="D89">
-        <v>39.7929829329116</v>
+        <v>38.17791984472269</v>
       </c>
       <c r="E89">
-        <v>39.87422564089032</v>
+        <v>39.72141209349481</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>38.87203408135095</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>38.12574537837182</v>
+        <v>38.18457293443007</v>
       </c>
       <c r="C90">
-        <v>39.70171637627779</v>
+        <v>39.72441261365766</v>
       </c>
       <c r="D90">
-        <v>39.70363161277498</v>
+        <v>38.10042275449896</v>
       </c>
       <c r="E90">
-        <v>39.78030586409968</v>
+        <v>39.64532398278926</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>38.78559510225202</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>38.08045134536475</v>
+        <v>38.09945625529291</v>
       </c>
       <c r="C91">
-        <v>39.58082108371438</v>
+        <v>39.59954896412216</v>
       </c>
       <c r="D91">
-        <v>39.60473906191166</v>
+        <v>38.01421041129494</v>
       </c>
       <c r="E91">
-        <v>39.67710260947823</v>
+        <v>39.55986267271951</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>38.69186420516304</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>38.02575756427969</v>
+        <v>38.00750298755485</v>
       </c>
       <c r="C92">
-        <v>39.45473899021793</v>
+        <v>39.47143063508722</v>
       </c>
       <c r="D92">
-        <v>39.49803425641448</v>
+        <v>37.92052523682495</v>
       </c>
       <c r="E92">
-        <v>39.56639335414415</v>
+        <v>39.46645650236191</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>38.59190264632718</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>37.96264906602384</v>
+        <v>37.90963158674326</v>
       </c>
       <c r="C93">
-        <v>39.32471356902062</v>
+        <v>39.34070395849643</v>
       </c>
       <c r="D93">
-        <v>39.38493633291475</v>
+        <v>37.82044490751556</v>
       </c>
       <c r="E93">
-        <v>39.44962106531945</v>
+        <v>39.36631049357977</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>38.48661636917024</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>37.89201475926407</v>
+        <v>37.80663548442629</v>
       </c>
       <c r="C94">
-        <v>39.19168967398937</v>
+        <v>39.20788661738092</v>
       </c>
       <c r="D94">
-        <v>39.26660826850061</v>
+        <v>37.71489882459466</v>
       </c>
       <c r="E94">
-        <v>39.32795434490904</v>
+        <v>39.26044685671726</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>38.3767776666354</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>37.81465406628337</v>
+        <v>37.69920428423328</v>
       </c>
       <c r="C95">
-        <v>39.0563860979213</v>
+        <v>39.07339311641908</v>
       </c>
       <c r="D95">
-        <v>39.14400228291938</v>
+        <v>37.60468618212666</v>
       </c>
       <c r="E95">
-        <v>39.20233826954592</v>
+        <v>39.14972965828883</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>38.26304231688906</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>37.73128398175406</v>
+        <v>37.58793541280873</v>
       </c>
       <c r="C96">
-        <v>38.91935075197945</v>
+        <v>38.93755575164251</v>
       </c>
       <c r="D96">
-        <v>39.01789779359525</v>
+        <v>37.49049310144563</v>
       </c>
       <c r="E96">
-        <v>39.07353667529478</v>
+        <v>39.03488797079386</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>38.14596737526147</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>37.64254622084871</v>
+        <v>37.47334409536342</v>
       </c>
       <c r="C97">
-        <v>38.78100236997926</v>
+        <v>38.80064355659916</v>
       </c>
       <c r="D97">
-        <v>38.88893287212866</v>
+        <v>37.3729068407537</v>
       </c>
       <c r="E97">
-        <v>38.94216691907088</v>
+        <v>38.91653950664342</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>38.02603142212421</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>37.54901421691624</v>
+        <v>37.35587632503864</v>
       </c>
       <c r="C98">
-        <v>38.64166192243168</v>
+        <v>38.66287405007344</v>
       </c>
       <c r="D98">
-        <v>38.75763014960232</v>
+        <v>37.25242883154531</v>
       </c>
       <c r="E98">
-        <v>38.80872821665038</v>
+        <v>38.79520725823726</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>37.90364141393488</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>37.4511998075218</v>
+        <v>37.23591820352257</v>
       </c>
       <c r="C99">
-        <v>38.50157624752901</v>
+        <v>38.52442302633334</v>
       </c>
       <c r="D99">
-        <v>38.62441805196115</v>
+        <v>37.12948692919295</v>
       </c>
       <c r="E99">
-        <v>38.67362460676188</v>
+        <v>38.67133415143473</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>37.77914386888089</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>37.34955950745167</v>
+        <v>37.11380349345975</v>
       </c>
       <c r="C100">
-        <v>38.36093582907783</v>
+        <v>38.38543340026424</v>
       </c>
       <c r="D100">
-        <v>38.48964815026498</v>
+        <v>37.00444649169071</v>
       </c>
       <c r="E100">
-        <v>38.53718348331635</v>
+        <v>38.54529515258152</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>37.65283588862516</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>37.24450031301724</v>
+        <v>36.98982082123061</v>
       </c>
       <c r="C101">
-        <v>38.21988818626827</v>
+        <v>38.24602136057549</v>
       </c>
       <c r="D101">
-        <v>38.35360930506199</v>
+        <v>36.87762050483128</v>
       </c>
       <c r="E101">
-        <v>38.39967050985678</v>
+        <v>38.41741232616548</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>37.52497186332246</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>37.13638501525777</v>
+        <v>36.86421944463302</v>
       </c>
       <c r="C102">
-        <v>38.07854797795424</v>
+        <v>38.10628192791342</v>
       </c>
       <c r="D102">
-        <v>38.21653918102745</v>
+        <v>36.74927624327167</v>
       </c>
       <c r="E102">
-        <v>38.26130160213023</v>
+        <v>38.2879584689112</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>37.39576970809595</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>37.02553702290806</v>
+        <v>36.73721828925044</v>
       </c>
       <c r="C103">
-        <v>37.9370046453075</v>
+        <v>37.96629290939695</v>
       </c>
       <c r="D103">
-        <v>38.07863361379098</v>
+        <v>36.61964109224072</v>
       </c>
       <c r="E103">
-        <v>38.1222525469919</v>
+        <v>38.15716513240923</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>37.26541617934551</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>36.9122447115961</v>
+        <v>36.60900598663005</v>
       </c>
       <c r="C104">
-        <v>37.79532820961549</v>
+        <v>37.82611817281177</v>
       </c>
       <c r="D104">
-        <v>37.94005422778101</v>
+        <v>36.48890937574772</v>
       </c>
       <c r="E104">
-        <v>37.9826667220775</v>
+        <v>38.0252298477842</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>37.13407259031878</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>36.79676532556135</v>
+        <v>36.47974607524568</v>
       </c>
       <c r="C105">
-        <v>37.65357368378887</v>
+        <v>37.68581051153253</v>
       </c>
       <c r="D105">
-        <v>37.80093463292123</v>
+        <v>36.35724794581216</v>
       </c>
       <c r="E105">
-        <v>37.84266129282383</v>
+        <v>37.89232222454265</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>37.00187875405648</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>36.67932846379644</v>
+        <v>36.34958015153</v>
       </c>
       <c r="C106">
-        <v>37.51178444006295</v>
+        <v>37.54541341664093</v>
       </c>
       <c r="D106">
-        <v>37.66138546799473</v>
+        <v>36.22480004606766</v>
       </c>
       <c r="E106">
-        <v>37.70233219098484</v>
+        <v>37.7585879688105</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>36.86895516877736</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>36.56013918512479</v>
+        <v>36.21863142931374</v>
       </c>
       <c r="C107">
-        <v>37.36999478958037</v>
+        <v>37.40496271414736</v>
       </c>
       <c r="D107">
-        <v>37.52149850810783</v>
+        <v>36.0916884501972</v>
       </c>
       <c r="E107">
-        <v>37.56175811794517</v>
+        <v>37.6241519986617</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>36.73540527842302</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>36.43938076720063</v>
+        <v>36.08700786591814</v>
       </c>
       <c r="C108">
-        <v>37.22823196512267</v>
+        <v>37.26448827789826</v>
       </c>
       <c r="D108">
-        <v>37.38135001390881</v>
+        <v>35.9580184971444</v>
       </c>
       <c r="E108">
-        <v>37.42100376789957</v>
+        <v>37.48912150765489</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>36.60131873356775</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>36.31721715358489</v>
+        <v>35.9548037896238</v>
       </c>
       <c r="C109">
-        <v>37.08651765040763</v>
+        <v>37.12401517939524</v>
       </c>
       <c r="D109">
-        <v>37.24100346535911</v>
+        <v>35.82388067300941</v>
       </c>
       <c r="E109">
-        <v>37.28012242661096</v>
+        <v>37.35358865621921</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>36.46677361980942</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>36.1937951212918</v>
+        <v>35.82210145982706</v>
       </c>
       <c r="C110">
-        <v>36.9448691637263</v>
+        <v>36.98356440518477</v>
       </c>
       <c r="D110">
-        <v>37.1005117961917</v>
+        <v>35.68935319957679</v>
       </c>
       <c r="E110">
-        <v>37.13915807004098</v>
+        <v>37.2176333085527</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>36.33183807415272</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>36.06924619902099</v>
+        <v>35.68897269346158</v>
       </c>
       <c r="C111">
-        <v>36.80330037744014</v>
+        <v>36.84315346848442</v>
       </c>
       <c r="D111">
-        <v>36.95991922280382</v>
+        <v>35.55450291016914</v>
       </c>
       <c r="E111">
-        <v>36.99814706194847</v>
+        <v>37.08132369555216</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>36.19657155131239</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>35.94368836375783</v>
+        <v>35.55548032207688</v>
       </c>
       <c r="C112">
-        <v>36.66182243447802</v>
+        <v>36.70279702167495</v>
       </c>
       <c r="D112">
-        <v>36.81926274347046</v>
+        <v>35.41938939723982</v>
       </c>
       <c r="E112">
-        <v>36.85711952952111</v>
+        <v>36.9447209920156</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>36.06102589561986</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>35.81722754092333</v>
+        <v>35.42167919221895</v>
       </c>
       <c r="C113">
-        <v>36.52044430863158</v>
+        <v>36.56250736673701</v>
       </c>
       <c r="D113">
-        <v>36.67857336923529</v>
+        <v>35.2840631109107</v>
       </c>
       <c r="E113">
-        <v>36.71610048016615</v>
+        <v>36.80787707800334</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>35.92524636427267</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>35.68995893071673</v>
+        <v>35.28761810358077</v>
       </c>
       <c r="C114">
-        <v>36.37917324434931</v>
+        <v>36.42229485078052</v>
       </c>
       <c r="D114">
-        <v>36.53787713612778</v>
+        <v>35.1485676414843</v>
       </c>
       <c r="E114">
-        <v>36.5751107097981</v>
+        <v>36.67083691608418</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>35.78927250141417</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>35.56196818096862</v>
+        <v>35.153339545088</v>
       </c>
       <c r="C115">
-        <v>36.23801510292569</v>
+        <v>36.28216834740718</v>
       </c>
       <c r="D115">
-        <v>36.39719593894056</v>
+        <v>35.01294098741259</v>
       </c>
       <c r="E115">
-        <v>36.43416754329766</v>
+        <v>36.53363927264967</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>35.65313912590602</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>35.43333242455235</v>
+        <v>35.01888147928804</v>
       </c>
       <c r="C116">
-        <v>36.09697463593344</v>
+        <v>36.14213518139651</v>
       </c>
       <c r="D116">
-        <v>36.2565482191805</v>
+        <v>34.87721557729683</v>
       </c>
       <c r="E116">
-        <v>36.29328543869673</v>
+        <v>36.39631810406829</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>35.51687681866073</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>35.30412119739395</v>
+        <v>34.88427682535291</v>
       </c>
       <c r="C117">
-        <v>35.95605570189762</v>
+        <v>36.00220210261675</v>
       </c>
       <c r="D117">
-        <v>36.11594953360073</v>
+        <v>34.74142031277052</v>
       </c>
       <c r="E117">
-        <v>36.15247648172138</v>
+        <v>36.2589032723894</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>35.38051246794025</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>35.17439725124774</v>
+        <v>34.74955474859924</v>
       </c>
       <c r="C118">
-        <v>35.81526143852502</v>
+        <v>35.86237427077545</v>
       </c>
       <c r="D118">
-        <v>35.975413025187</v>
+        <v>34.6055799108012</v>
       </c>
       <c r="E118">
-        <v>36.01175079109904</v>
+        <v>36.12142092423645</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>35.24407092741711</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>35.04421727376607</v>
+        <v>34.61474094052189</v>
       </c>
       <c r="C119">
-        <v>35.67459440001956</v>
+        <v>35.72265681956273</v>
       </c>
       <c r="D119">
-        <v>35.83494981329667</v>
+        <v>34.46971633881115</v>
       </c>
       <c r="E119">
-        <v>35.8711168514532</v>
+        <v>35.98389397247904</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>35.10757307957944</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>34.91363252687943</v>
+        <v>34.47985822829233</v>
       </c>
       <c r="C120">
-        <v>35.53405666689748</v>
+        <v>35.58305342440539</v>
       </c>
       <c r="D120">
-        <v>35.69456931814408</v>
+        <v>34.33384882271719</v>
       </c>
       <c r="E120">
-        <v>35.73058178722329</v>
+        <v>35.84634290567056</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>34.97103767054422</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>34.78268941319153</v>
+        <v>34.34492682022962</v>
       </c>
       <c r="C121">
-        <v>35.39364993403146</v>
+        <v>35.44356775282508</v>
       </c>
       <c r="D121">
-        <v>35.55427953069169</v>
+        <v>34.19799414833589</v>
       </c>
       <c r="E121">
-        <v>35.59015158851505</v>
+        <v>35.70878516561666</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>34.83448095203487</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>34.65142997891277</v>
+        <v>34.20996478703829</v>
       </c>
       <c r="C122">
-        <v>35.25337558162595</v>
+        <v>35.30420253009558</v>
       </c>
       <c r="D122">
-        <v>35.41408723767774</v>
+        <v>34.06216713614297</v>
       </c>
       <c r="E122">
-        <v>35.44983129766801</v>
+        <v>35.57123663764738</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>34.69791756357595</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>34.5198923608318</v>
+        <v>34.07498811184553</v>
       </c>
       <c r="C123">
-        <v>35.11323473226982</v>
+        <v>35.16496028349864</v>
       </c>
       <c r="D123">
-        <v>35.2739982095031</v>
+        <v>33.92638071533683</v>
       </c>
       <c r="E123">
-        <v>35.30962516366621</v>
+        <v>35.43371081143592</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>34.56136053632083</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>34.38811118390412</v>
+        <v>33.940011000744</v>
       </c>
       <c r="C124">
-        <v>34.97322829713867</v>
+        <v>35.02584310133312</v>
       </c>
       <c r="D124">
-        <v>35.13401735739718</v>
+        <v>33.79064617741304</v>
       </c>
       <c r="E124">
-        <v>35.16953677017605</v>
+        <v>35.29621976788469</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>34.42482153204593</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>34.25611791520992</v>
+        <v>33.8050461245348</v>
       </c>
       <c r="C125">
-        <v>34.83335701356637</v>
+        <v>34.88685281209825</v>
       </c>
       <c r="D125">
-        <v>34.99414886509493</v>
+        <v>33.65497352762844</v>
       </c>
       <c r="E125">
-        <v>35.02956914191462</v>
+        <v>35.15877411793642</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>34.28831098525176</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>34.12394117946675</v>
+        <v>33.67010474713314</v>
       </c>
       <c r="C126">
-        <v>34.69362147550285</v>
+        <v>34.74799100518282</v>
       </c>
       <c r="D126">
-        <v>34.85439629934462</v>
+        <v>33.51937147568997</v>
       </c>
       <c r="E126">
-        <v>34.88972483317653</v>
+        <v>35.02138326898844</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>34.15183839571898</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>33.99160704047475</v>
+        <v>33.53519693513594</v>
       </c>
       <c r="C127">
-        <v>34.55402215839046</v>
+        <v>34.60925910011233</v>
       </c>
       <c r="D127">
-        <v>34.71476270280123</v>
+        <v>33.38384780271711</v>
       </c>
       <c r="E127">
-        <v>34.75000600164754</v>
+        <v>34.88405564378859</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>34.01541199489758</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>33.85913925221373</v>
+        <v>33.40033170720175</v>
       </c>
       <c r="C128">
-        <v>34.41455943947935</v>
+        <v>34.47065827351501</v>
       </c>
       <c r="D128">
-        <v>34.57525067224092</v>
+        <v>33.24840931073302</v>
       </c>
       <c r="E128">
-        <v>34.61041447003936</v>
+        <v>34.74679867780647</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>33.87903962400937</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>33.7265594835183</v>
+        <v>33.26551714305323</v>
       </c>
       <c r="C129">
-        <v>34.27523361448349</v>
+        <v>34.33218962586676</v>
       </c>
       <c r="D129">
-        <v>34.43586242451801</v>
+        <v>33.11306212789678</v>
       </c>
       <c r="E129">
-        <v>34.47095177772253</v>
+        <v>34.60961902305763</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>33.74272777540055</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>33.5938875189376</v>
+        <v>33.13076046974155</v>
       </c>
       <c r="C130">
-        <v>34.13604491125751</v>
+        <v>34.19385401955709</v>
       </c>
       <c r="D130">
-        <v>34.2965998522776</v>
+        <v>32.97781159653764</v>
       </c>
       <c r="E130">
-        <v>34.33161922400059</v>
+        <v>34.47252258459787</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>33.6064827432326</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>33.46114143863498</v>
+        <v>32.99606818775944</v>
       </c>
       <c r="C131">
-        <v>33.99699350106116</v>
+        <v>34.05565226213525</v>
       </c>
       <c r="D131">
-        <v>34.1574645710862</v>
+        <v>32.84266253191885</v>
       </c>
       <c r="E131">
-        <v>34.19241790430725</v>
+        <v>34.33551458505041</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>33.47030978643585</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>33.32833777965059</v>
+        <v>32.86144611967171</v>
       </c>
       <c r="C132">
-        <v>33.85807950785229</v>
+        <v>33.91758499857965</v>
       </c>
       <c r="D132">
-        <v>34.01845795936427</v>
+        <v>32.70761915067968</v>
       </c>
       <c r="E132">
-        <v>34.05334874084346</v>
+        <v>34.19859970228517</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>33.33421384543991</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>33.1954916805725</v>
+        <v>32.72689949682631</v>
       </c>
       <c r="C133">
-        <v>33.7193030159746</v>
+        <v>33.77965280346952</v>
       </c>
       <c r="D133">
-        <v>33.87958119227141</v>
+        <v>32.5726852165796</v>
       </c>
       <c r="E133">
-        <v>33.91441250828065</v>
+        <v>34.06178208839331</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>33.19819927378984</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>33.06261701149037</v>
+        <v>32.59243301123698</v>
       </c>
       <c r="C134">
-        <v>33.58066407653056</v>
+        <v>33.64185616652584</v>
       </c>
       <c r="D134">
-        <v>33.74083527050319</v>
+        <v>32.43786407463578</v>
       </c>
       <c r="E134">
-        <v>33.77560985547916</v>
+        <v>33.92506546030896</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>33.06227003241756</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>32.92972649079531</v>
+        <v>32.45805090824749</v>
       </c>
       <c r="C135">
-        <v>33.44216271267557</v>
+        <v>33.50419550858389</v>
       </c>
       <c r="D135">
-        <v>33.60222104480001</v>
+        <v>32.30315868452863</v>
       </c>
       <c r="E135">
-        <v>33.63694132384937</v>
+        <v>33.78845315712081</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>32.92642970848999</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>32.79683179030305</v>
+        <v>32.32375701760522</v>
       </c>
       <c r="C136">
-        <v>33.30379892402622</v>
+        <v>33.36667119628244</v>
       </c>
       <c r="D136">
-        <v>33.46373923683668</v>
+        <v>32.16857171186993</v>
       </c>
       <c r="E136">
-        <v>33.49840736288674</v>
+        <v>33.65194815098225</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>32.79068159966441</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>32.66394362991438</v>
+        <v>32.18955475091752</v>
       </c>
       <c r="C137">
-        <v>33.16557269033729</v>
+        <v>33.22928354913488</v>
       </c>
       <c r="D137">
-        <v>33.32539045705271</v>
+        <v>32.03410550795575</v>
       </c>
       <c r="E137">
-        <v>33.3600083433528</v>
+        <v>33.51555313545418</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>32.65502862819349</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>32.53107186297391</v>
+        <v>32.05544732780741</v>
       </c>
       <c r="C138">
-        <v>33.02748397457577</v>
+        <v>33.09203283212082</v>
       </c>
       <c r="D138">
-        <v>33.18717521989344</v>
+        <v>31.89976220523408</v>
       </c>
       <c r="E138">
-        <v>33.22174456846573</v>
+        <v>33.37927049851308</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>32.51947355681039</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>32.39822555327633</v>
+        <v>31.92143745585965</v>
       </c>
       <c r="C139">
-        <v>32.8895327254959</v>
+        <v>32.95491928269823</v>
       </c>
       <c r="D139">
-        <v>33.04909395685543</v>
+        <v>31.76554368188084</v>
       </c>
       <c r="E139">
-        <v>33.08361628341991</v>
+        <v>33.24310239644748</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>32.38401877800563</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>32.26541304463454</v>
+        <v>31.78752780820675</v>
       </c>
       <c r="C140">
-        <v>32.75171887980026</v>
+        <v>32.81794308642246</v>
       </c>
       <c r="D140">
-        <v>32.91114702766837</v>
+        <v>31.6314516425318</v>
       </c>
       <c r="E140">
-        <v>32.945623683495</v>
+        <v>33.10705075749528</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>32.24866655876666</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>32.1326420237548</v>
+        <v>31.65372064459938</v>
       </c>
       <c r="C141">
-        <v>32.61404236395706</v>
+        <v>32.68110440783684</v>
       </c>
       <c r="D141">
-        <v>32.77333472989233</v>
+        <v>31.49748759351104</v>
       </c>
       <c r="E141">
-        <v>32.8077669209738</v>
+        <v>32.97111731192161</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>32.1134188861971</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>31.99991957714172</v>
+        <v>31.52001806965028</v>
       </c>
       <c r="C142">
-        <v>32.47650309573118</v>
+        <v>32.54440337399688</v>
       </c>
       <c r="D142">
-        <v>32.63565730716604</v>
+        <v>31.36365289361389</v>
       </c>
       <c r="E142">
-        <v>32.67004611105271</v>
+        <v>32.83530362069517</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>31.97827760132889</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>31.86725224262022</v>
+        <v>31.38642200249888</v>
       </c>
       <c r="C143">
-        <v>32.33910098547619</v>
+        <v>32.40784009096662</v>
       </c>
       <c r="D143">
-        <v>32.49811495630519</v>
+        <v>31.22994875602394</v>
       </c>
       <c r="E143">
-        <v>32.53246133689852</v>
+        <v>32.69961108372831</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>31.84324436333414</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>31.73464605604769</v>
+        <v>31.2529341230026</v>
       </c>
       <c r="C144">
-        <v>32.20183593722686</v>
+        <v>32.27141464200479</v>
       </c>
       <c r="D144">
-        <v>32.36070783341874</v>
+        <v>31.09637625298461</v>
       </c>
       <c r="E144">
-        <v>32.39501265398112</v>
+        <v>32.56404096458314</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>31.70832069031862</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>31.60210659368098</v>
+        <v>31.119556009191</v>
       </c>
       <c r="C145">
-        <v>32.0647078496246</v>
+        <v>32.13512709142512</v>
       </c>
       <c r="D145">
-        <v>32.22343605918608</v>
+        <v>30.96293636691523</v>
       </c>
       <c r="E145">
-        <v>32.25770009379082</v>
+        <v>32.42859440148278</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>31.57350796111087</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>31.46963901065435</v>
+        <v>30.98628905218084</v>
       </c>
       <c r="C146">
-        <v>31.92771661670256</v>
+        <v>31.99897748733011</v>
       </c>
       <c r="D146">
-        <v>32.08629972341576</v>
+        <v>30.82962998978223</v>
       </c>
       <c r="E146">
-        <v>32.12052366703219</v>
+        <v>32.29327241529899</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>31.43880745140788</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>31.3372480759345</v>
+        <v>30.85313454669828</v>
       </c>
       <c r="C147">
-        <v>31.79086212855303</v>
+        <v>31.86296586378911</v>
       </c>
       <c r="D147">
-        <v>31.94929888898844</v>
+        <v>30.69645786025971</v>
       </c>
       <c r="E147">
-        <v>31.98348336637171</v>
+        <v>32.15807592888621</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>31.30422030513344</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>31.2049382041037</v>
+        <v>30.72009364606867</v>
       </c>
       <c r="C148">
-        <v>31.65414427189542</v>
+        <v>31.7270922398456</v>
       </c>
       <c r="D148">
-        <v>31.81243359527034</v>
+        <v>30.56342073244699</v>
       </c>
       <c r="E148">
-        <v>31.84657916880485</v>
+        <v>32.02300576442056</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>31.16974759357105</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>31.07271348435669</v>
+        <v>30.58716741614576</v>
       </c>
       <c r="C149">
-        <v>31.5175629305607</v>
+        <v>31.59135662483607</v>
       </c>
       <c r="D149">
-        <v>31.67570386107496</v>
+        <v>30.4305192566833</v>
       </c>
       <c r="E149">
-        <v>31.70981103769784</v>
+        <v>31.88806267954551</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>31.03539027318795</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>30.94057770686942</v>
+        <v>30.45435682721344</v>
       </c>
       <c r="C150">
-        <v>31.38111798590511</v>
+        <v>31.45575901455592</v>
       </c>
       <c r="D150">
-        <v>31.53910968723704</v>
+        <v>30.29775395396362</v>
       </c>
       <c r="E150">
-        <v>31.57317892455118</v>
+        <v>31.75324732947892</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>30.90114923195245</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>30.80853438674009</v>
+        <v>30.32166274279738</v>
       </c>
       <c r="C151">
-        <v>31.24480931716397</v>
+        <v>31.32029939637149</v>
       </c>
       <c r="D151">
-        <v>31.40265105883749</v>
+        <v>30.16512539942379</v>
       </c>
       <c r="E151">
-        <v>31.43668277052457</v>
+        <v>31.6185603327284</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>30.76702527228746</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>30.67658678600267</v>
+        <v>30.18908597974074</v>
       </c>
       <c r="C152">
-        <v>31.10863680175492</v>
+        <v>31.1849777475072</v>
       </c>
       <c r="D152">
-        <v>31.26632794715087</v>
+        <v>30.03263404719889</v>
       </c>
       <c r="E152">
-        <v>31.3003225077575</v>
+        <v>31.48400224455048</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>30.6330191294193</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>30.54473793366093</v>
+        <v>30.05662724316313</v>
       </c>
       <c r="C153">
-        <v>30.97260031553792</v>
+        <v>31.04979404037762</v>
       </c>
       <c r="D153">
-        <v>31.13014031133844</v>
+        <v>29.90028029091258</v>
       </c>
       <c r="E153">
-        <v>31.16409806051396</v>
+        <v>31.34957353531539</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>30.49913147074551</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>30.41299064395427</v>
+        <v>29.9242872039913</v>
       </c>
       <c r="C154">
-        <v>30.8366997330388</v>
+        <v>30.91474823784967</v>
       </c>
       <c r="D154">
-        <v>30.99408809992262</v>
+        <v>29.76806453768224</v>
       </c>
       <c r="E154">
-        <v>31.02800934617616</v>
+        <v>31.21527467389614</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>30.36536290849995</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>30.28134753311697</v>
+        <v>29.79206645233482</v>
       </c>
       <c r="C155">
-        <v>30.70093492764145</v>
+        <v>30.77984029628398</v>
       </c>
       <c r="D155">
-        <v>30.8581712520761</v>
+        <v>29.6359871048966</v>
       </c>
       <c r="E155">
-        <v>30.89205627610793</v>
+        <v>31.08110604027044</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>30.23171400941429</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>30.14981103470393</v>
+        <v>29.65996552901951</v>
       </c>
       <c r="C156">
-        <v>30.5653057717536</v>
+        <v>30.64507017245988</v>
       </c>
       <c r="D156">
-        <v>30.72238969874734</v>
+        <v>29.5040482946138</v>
       </c>
       <c r="E156">
-        <v>30.75623875640608</v>
+        <v>30.94706799642756</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>30.09818527512344</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>30.01838341360342</v>
+        <v>29.52798492560904</v>
       </c>
       <c r="C157">
-        <v>30.4298121369497</v>
+        <v>30.51043781316874</v>
       </c>
       <c r="D157">
-        <v>30.58674336364558</v>
+        <v>29.37224838357812</v>
       </c>
       <c r="E157">
-        <v>30.62055668855479</v>
+        <v>30.81316086697957</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>29.96477717167014</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>29.8870667789081</v>
+        <v>29.39612508279159</v>
       </c>
       <c r="C158">
-        <v>30.29445389409452</v>
+        <v>30.3759431589425</v>
       </c>
       <c r="D158">
-        <v>30.45123216410341</v>
+        <v>29.24058760565148</v>
       </c>
       <c r="E158">
-        <v>30.48500996999617</v>
+        <v>30.67938492646108</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>29.83149014464144</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>29.7558630957115</v>
+        <v>29.26438640643465</v>
       </c>
       <c r="C159">
-        <v>30.15923091344992</v>
+        <v>30.24158615476969</v>
       </c>
       <c r="D159">
-        <v>30.31585601183278</v>
+        <v>29.109066183508</v>
       </c>
       <c r="E159">
-        <v>30.34959849462857</v>
+        <v>30.54574043488958</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>29.69832457463327</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>29.62477419592533</v>
+        <v>29.13276925543332</v>
       </c>
       <c r="C160">
-        <v>30.02414306476748</v>
+        <v>30.10736673633306</v>
       </c>
       <c r="D160">
-        <v>30.18061481358856</v>
+        <v>28.97768431492193</v>
       </c>
       <c r="E160">
-        <v>30.21432215324187</v>
+        <v>30.41222761489157</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>29.56528080576022</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>29.49380178823017</v>
+        <v>29.00127396358143</v>
       </c>
       <c r="C161">
-        <v>29.88919021736878</v>
+        <v>29.97328483352777</v>
       </c>
       <c r="D161">
-        <v>30.04550847175129</v>
+        <v>28.8464421693166</v>
       </c>
       <c r="E161">
-        <v>30.07918083389846</v>
+        <v>30.27884666791405</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>29.43235918581589</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>29.36294746721385</v>
+        <v>28.86990082402682</v>
       </c>
       <c r="C162">
-        <v>29.7543722402151</v>
+        <v>29.83934038027697</v>
       </c>
       <c r="D162">
-        <v>29.91053688483965</v>
+        <v>28.71533991353879</v>
       </c>
       <c r="E162">
-        <v>29.94417442226692</v>
+        <v>30.14559777364742</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>29.2995600064836</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>29.23221272177312</v>
+        <v>28.73865010485775</v>
       </c>
       <c r="C163">
-        <v>29.61968900196807</v>
+        <v>29.70553330412002</v>
       </c>
       <c r="D163">
-        <v>29.77569994796144</v>
+        <v>28.58437769034795</v>
       </c>
       <c r="E163">
-        <v>29.80930280191451</v>
+        <v>30.01248108614325</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>29.1668835175051</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>29.10159894285514</v>
+        <v>28.6075220470684</v>
       </c>
       <c r="C164">
-        <v>29.48514037104244</v>
+        <v>29.57186352870503</v>
       </c>
       <c r="D164">
-        <v>29.64099755321084</v>
+        <v>28.45355562128819</v>
       </c>
       <c r="E164">
-        <v>29.67456585456393</v>
+        <v>29.87949674884928</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>29.03432997855691</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>28.97110743058054</v>
+        <v>28.47651686185585</v>
       </c>
       <c r="C165">
-        <v>29.35072621565208</v>
+        <v>29.4383309789019</v>
       </c>
       <c r="D165">
-        <v>29.50642959001879</v>
+        <v>28.32287383039934</v>
       </c>
       <c r="E165">
-        <v>29.53996346031892</v>
+        <v>29.74664488025526</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>28.90189960867908</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>28.84073940080791</v>
+        <v>28.34563474321173</v>
       </c>
       <c r="C166">
-        <v>29.2164464038501</v>
+        <v>29.304935576309</v>
       </c>
       <c r="D166">
-        <v>29.37199594546216</v>
+        <v>28.19233241633766</v>
       </c>
       <c r="E166">
-        <v>29.40549549786264</v>
+        <v>29.61392558712194</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>28.76959259249455</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>28.71049599119299</v>
+        <v>28.2148758577521</v>
       </c>
       <c r="C167">
-        <v>29.08230080356392</v>
+        <v>29.17167724053627</v>
       </c>
       <c r="D167">
-        <v>29.23769650453684</v>
+        <v>28.06193146902724</v>
       </c>
       <c r="E167">
-        <v>29.27116184463232</v>
+        <v>29.48133896361035</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>28.63740911484966</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>28.58037826677385</v>
+        <v>28.08424035713608</v>
       </c>
       <c r="C168">
-        <v>28.94828928262591</v>
+        <v>29.03855589086092</v>
       </c>
       <c r="D168">
-        <v>29.10353115039927</v>
+        <v>27.93167107455968</v>
       </c>
       <c r="E168">
-        <v>29.13696237697318</v>
+        <v>29.34888508374496</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>28.50534933448661</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>28.45038722512993</v>
+        <v>27.95372837180848</v>
       </c>
       <c r="C169">
-        <v>28.81441170880023</v>
+        <v>28.90557144488111</v>
       </c>
       <c r="D169">
-        <v>28.96949976458018</v>
+        <v>27.8015513009211</v>
       </c>
       <c r="E169">
-        <v>29.00289697027412</v>
+        <v>29.21656401660122</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>28.37341338734834</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>28.32052380115191</v>
+        <v>27.82334001692437</v>
       </c>
       <c r="C170">
-        <v>28.68066794980632</v>
+        <v>28.77272381889505</v>
       </c>
       <c r="D170">
-        <v>28.83560222717383</v>
+        <v>27.67157221375161</v>
       </c>
       <c r="E170">
-        <v>28.86896549908767</v>
+        <v>29.0843758157151</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>28.24160140251908</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>28.1907888714465</v>
+        <v>27.69307539228462</v>
       </c>
       <c r="C171">
-        <v>28.54705787333957</v>
+        <v>28.64001292931872</v>
       </c>
       <c r="D171">
-        <v>28.70183841700585</v>
+        <v>27.54173387041203</v>
       </c>
       <c r="E171">
-        <v>28.7351678372358</v>
+        <v>28.95232052543001</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>28.10991349211505</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>28.06118325841372</v>
+        <v>27.56293458214977</v>
       </c>
       <c r="C172">
-        <v>28.41358134708935</v>
+        <v>28.50743869120645</v>
       </c>
       <c r="D172">
-        <v>28.56820821178208</v>
+        <v>27.41203631967251</v>
       </c>
       <c r="E172">
-        <v>28.60150385790367</v>
+        <v>28.8203981818686</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>27.97834974910173</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>27.93170773402313</v>
+        <v>27.4329176599194</v>
       </c>
       <c r="C173">
-        <v>28.280238238755</v>
+        <v>28.37500101825907</v>
       </c>
       <c r="D173">
-        <v>28.43471148822083</v>
+        <v>27.28247960706333</v>
       </c>
       <c r="E173">
-        <v>28.46797343372249</v>
+        <v>28.6886088107515</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>27.84691026282745</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>27.80236302330704</v>
+        <v>27.30302468382135</v>
       </c>
       <c r="C174">
-        <v>28.14702841605977</v>
+        <v>28.2426998251213</v>
       </c>
       <c r="D174">
-        <v>28.30134812217032</v>
+        <v>27.15306377211927</v>
       </c>
       <c r="E174">
-        <v>28.33457643684311</v>
+        <v>28.55695243224796</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>27.71559510956246</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>27.67314980760083</v>
+        <v>27.17325570370564</v>
       </c>
       <c r="C175">
-        <v>28.01395174676316</v>
+        <v>28.11053502520165</v>
       </c>
       <c r="D175">
-        <v>28.1681179887132</v>
+        <v>27.02378884841539</v>
       </c>
       <c r="E175">
-        <v>28.2013127390011</v>
+        <v>28.4254290579642</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>27.58440434518907</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>27.54406872754879</v>
+        <v>27.04361075673298</v>
       </c>
       <c r="C176">
-        <v>27.88100809867178</v>
+        <v>27.9785065307499</v>
       </c>
       <c r="D176">
-        <v>28.03502096225952</v>
+        <v>26.89465486843942</v>
       </c>
       <c r="E176">
-        <v>28.06818221157463</v>
+        <v>28.29403869366685</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>27.45333802750594</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>27.41512038588976</v>
+        <v>26.9140898712811</v>
       </c>
       <c r="C177">
-        <v>27.74819733964895</v>
+        <v>27.84661425495883</v>
       </c>
       <c r="D177">
-        <v>27.90205691662965</v>
+        <v>26.76566185881723</v>
       </c>
       <c r="E177">
-        <v>27.9351847256359</v>
+        <v>28.16278134012018</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>27.32239620272403</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>27.28630535004611</v>
+        <v>26.78469306673546</v>
       </c>
       <c r="C178">
-        <v>27.61551933762307</v>
+        <v>27.71485811021786</v>
       </c>
       <c r="D178">
-        <v>27.76922572512806</v>
+        <v>26.63680984256262</v>
       </c>
       <c r="E178">
-        <v>27.80232015199675</v>
+        <v>28.03165699054977</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>27.19157889874415</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>27.15762415452937</v>
+        <v>26.65542035320791</v>
       </c>
       <c r="C179">
-        <v>27.4829739605952</v>
+        <v>27.5832380083312</v>
       </c>
       <c r="D179">
-        <v>27.6365272606093</v>
+        <v>26.50809884247838</v>
       </c>
       <c r="E179">
-        <v>27.66958836124941</v>
+        <v>27.90066563569968</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>27.06088614554101</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>27.0290773031736</v>
+        <v>26.52627173416446</v>
       </c>
       <c r="C180">
-        <v>27.35056107664554</v>
+        <v>27.45175386156095</v>
       </c>
       <c r="D180">
-        <v>27.50396139553678</v>
+        <v>26.37952887563729</v>
       </c>
       <c r="E180">
-        <v>27.53698922380265</v>
+        <v>27.76980726027274</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>26.93031796308102</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>26.90066527121498</v>
+        <v>26.39724720456937</v>
       </c>
       <c r="C181">
-        <v>27.21828055393936</v>
+        <v>27.3204055818878</v>
       </c>
       <c r="D181">
-        <v>27.37152800203535</v>
+        <v>26.25109995844532</v>
       </c>
       <c r="E181">
-        <v>27.40452260991406</v>
+        <v>27.63908184499146</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>26.79987435920509</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>26.77238850722739</v>
+        <v>26.26834675380943</v>
       </c>
       <c r="C182">
-        <v>27.08613226073212</v>
+        <v>27.18919308119021</v>
       </c>
       <c r="D182">
-        <v>27.23922695193831</v>
+        <v>26.12281210590495</v>
       </c>
       <c r="E182">
-        <v>27.27218838971886</v>
+        <v>27.50848936759483</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>26.66955533963161</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>26.64424743492259</v>
+        <v>26.1395703641072</v>
       </c>
       <c r="C183">
-        <v>26.95411606537405</v>
+        <v>27.05811627158269</v>
       </c>
       <c r="D183">
-        <v>27.10705811682949</v>
+        <v>25.99466532950285</v>
       </c>
       <c r="E183">
-        <v>27.13998643325557</v>
+        <v>27.37802980113613</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>26.53936090311306</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>26.51624245482956</v>
+        <v>26.0109180123223</v>
       </c>
       <c r="C184">
-        <v>26.82223183631422</v>
+        <v>26.92717506521597</v>
       </c>
       <c r="D184">
-        <v>26.97502136808085</v>
+        <v>25.86665964090588</v>
       </c>
       <c r="E184">
-        <v>27.00791661048896</v>
+        <v>27.24770311666527</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>26.40929104054651</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>26.3883739458601</v>
+        <v>25.88238966986974</v>
       </c>
       <c r="C185">
-        <v>26.6904794421041</v>
+        <v>26.79636937429185</v>
       </c>
       <c r="D185">
-        <v>26.84311657688624</v>
+        <v>25.73879505018967</v>
       </c>
       <c r="E185">
-        <v>26.87597879133059</v>
+        <v>27.11750928180785</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>26.27934573881745</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>26.26064226676766</v>
+        <v>25.75398530263952</v>
       </c>
       <c r="C186">
-        <v>26.55885875140082</v>
+        <v>26.66569911142117</v>
       </c>
       <c r="D186">
-        <v>26.71134361429169</v>
+        <v>25.6110715660237</v>
       </c>
       <c r="E186">
-        <v>26.74417284565715</v>
+        <v>26.98744826165539</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>26.14952498009236</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>26.13304775751088</v>
+        <v>25.62570487247918</v>
       </c>
       <c r="C187">
-        <v>26.42736963296993</v>
+        <v>26.53516418935989</v>
       </c>
       <c r="D187">
-        <v>26.5797023512225</v>
+        <v>25.48348919711465</v>
       </c>
       <c r="E187">
-        <v>26.61249864332688</v>
+        <v>26.85752001937407</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>26.01982874022123</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>26.00559074052639</v>
+        <v>25.49754833599619</v>
       </c>
       <c r="C188">
-        <v>26.29601195568796</v>
+        <v>26.40476452092592</v>
       </c>
       <c r="D188">
-        <v>26.44819265850761</v>
+        <v>25.35604795131018</v>
       </c>
       <c r="E188">
-        <v>26.48095605419428</v>
+        <v>26.72772451535318</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>25.89025699139665</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>25.87827152191779</v>
+        <v>25.36951564641257</v>
       </c>
       <c r="C189">
-        <v>26.16478558854462</v>
+        <v>26.27450001956511</v>
       </c>
       <c r="D189">
-        <v>26.31681440690152</v>
+        <v>25.22874783589897</v>
       </c>
       <c r="E189">
-        <v>26.34954494812345</v>
+        <v>26.59806170883211</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>25.76080970249991</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>25.75109039256853</v>
+        <v>25.24160675211811</v>
       </c>
       <c r="C190">
-        <v>26.03369040064482</v>
+        <v>26.14437059893094</v>
       </c>
       <c r="D190">
-        <v>26.18556746710393</v>
+        <v>25.1015888587078</v>
       </c>
       <c r="E190">
-        <v>26.21826519499973</v>
+        <v>26.4685315569332</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>25.63148683689919</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>25.62404762918259</v>
+        <v>25.11382159854229</v>
       </c>
       <c r="C191">
-        <v>25.90272626121042</v>
+        <v>26.01437617283366</v>
       </c>
       <c r="D191">
-        <v>26.05445170977746</v>
+        <v>24.97457102712868</v>
       </c>
       <c r="E191">
-        <v>26.0871166647404</v>
+        <v>26.3391340152209</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>25.50228835447723</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>25.49714349525869</v>
+        <v>24.98616012820824</v>
       </c>
       <c r="C192">
-        <v>25.77189303958179</v>
+        <v>25.88451665574868</v>
       </c>
       <c r="D192">
-        <v>25.92346700556359</v>
+        <v>24.8476943485628</v>
       </c>
       <c r="E192">
-        <v>25.95609922730423</v>
+        <v>26.20986903829734</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>25.37321421299521</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>25.3703782420038</v>
+        <v>24.85862228001599</v>
       </c>
       <c r="C193">
-        <v>25.6411906052192</v>
+        <v>25.75479196246918</v>
       </c>
       <c r="D193">
-        <v>25.79261322509694</v>
+        <v>24.72095883080333</v>
       </c>
       <c r="E193">
-        <v>25.82521275270007</v>
+        <v>26.08073657896092</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>25.24426436562463</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>25.24375210918884</v>
+        <v>24.73120798835414</v>
       </c>
       <c r="C194">
-        <v>25.51061882770412</v>
+        <v>25.62520200812519</v>
       </c>
       <c r="D194">
-        <v>25.66189023901826</v>
+        <v>24.59436448188368</v>
       </c>
       <c r="E194">
-        <v>25.69445711099456</v>
+        <v>25.95173658949427</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>25.11543876206196</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>25.11726532595153</v>
+        <v>24.60391718786398</v>
       </c>
       <c r="C195">
-        <v>25.38017757674025</v>
+        <v>25.49574670844932</v>
       </c>
       <c r="D195">
-        <v>25.53129791798608</v>
+        <v>24.46791131038408</v>
       </c>
       <c r="E195">
-        <v>25.56383217231905</v>
+        <v>25.82286902099442</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>24.98673735050043</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>24.99091811155057</v>
+        <v>24.47674981030377</v>
       </c>
       <c r="C196">
-        <v>25.24986672215453</v>
+        <v>25.3664259796247</v>
       </c>
       <c r="D196">
-        <v>25.40083613268715</v>
+        <v>24.34159932555548</v>
       </c>
       <c r="E196">
-        <v>25.43333780687587</v>
+        <v>25.69413382370193</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>24.8581600755522</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>24.86471067607348</v>
+        <v>24.34970578156927</v>
       </c>
       <c r="C197">
-        <v>25.11968613389802</v>
+        <v>25.2372397383196</v>
       </c>
       <c r="D197">
-        <v>25.27050475384602</v>
+        <v>24.21542853735151</v>
       </c>
       <c r="E197">
-        <v>25.30297388494396</v>
+        <v>25.56553094740673</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>24.7297068787406</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>24.73864322110225</v>
+        <v>24.22278502834906</v>
       </c>
       <c r="C198">
-        <v>24.9896356820467</v>
+        <v>25.10818790179705</v>
       </c>
       <c r="D198">
-        <v>25.14030365223354</v>
+        <v>24.08939895662107</v>
       </c>
       <c r="E198">
-        <v>25.17274027688393</v>
+        <v>25.4370603410249</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>24.60137770018602</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>24.61271594033979</v>
+        <v>24.095987475617</v>
       </c>
       <c r="C199">
-        <v>24.85971523680209</v>
+        <v>24.97927038787385</v>
       </c>
       <c r="D199">
-        <v>25.01023269867463</v>
+        <v>23.9635105951539</v>
       </c>
       <c r="E199">
-        <v>25.04263685314267</v>
+        <v>25.30872195328601</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>24.47317247727864</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>24.48692902019922</v>
+        <v>23.96931304534938</v>
       </c>
       <c r="C200">
-        <v>24.72992466849194</v>
+        <v>24.85048711492405</v>
       </c>
       <c r="D200">
-        <v>24.88029176405526</v>
+        <v>23.83776346572927</v>
       </c>
       <c r="E200">
-        <v>24.91266348425742</v>
+        <v>25.18051573242144</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>24.34509114484563</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>24.36128264035922</v>
+        <v>23.842761655679</v>
       </c>
       <c r="C201">
-        <v>24.60026384757074</v>
+        <v>24.72183800198721</v>
       </c>
       <c r="D201">
-        <v>24.75048071932881</v>
+        <v>23.71215758229545</v>
       </c>
       <c r="E201">
-        <v>24.78282004085958</v>
+        <v>25.05244162634061</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>24.21713363642713</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>24.23577697428801</v>
+        <v>23.71633322609838</v>
       </c>
       <c r="C202">
-        <v>24.47073264462021</v>
+        <v>24.59332296872279</v>
       </c>
       <c r="D202">
-        <v>24.62079943552175</v>
+        <v>23.58669295992836</v>
       </c>
       <c r="E202">
-        <v>24.65310639367799</v>
+        <v>24.92449958293355</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>24.08929988342433</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>24.11041218973708</v>
+        <v>23.59002767357117</v>
       </c>
       <c r="C203">
-        <v>24.34133093034971</v>
+        <v>24.46494193539256</v>
       </c>
       <c r="D203">
-        <v>24.49124778373885</v>
+        <v>23.46136961503068</v>
       </c>
       <c r="E203">
-        <v>24.52352241354205</v>
+        <v>24.7966895497401</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>23.96158981498025</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>23.98518844920795</v>
+        <v>23.46384491215467</v>
       </c>
       <c r="C204">
-        <v>24.21205857559665</v>
+        <v>24.33669482300256</v>
       </c>
       <c r="D204">
-        <v>24.36182563516789</v>
+        <v>23.33618756533892</v>
       </c>
       <c r="E204">
-        <v>24.39406797138442</v>
+        <v>24.66901147448729</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>23.8340033592945</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>23.86010591039337</v>
+        <v>23.33778485554807</v>
       </c>
       <c r="C205">
-        <v>24.08291545132684</v>
+        <v>24.20858155323348</v>
       </c>
       <c r="D205">
-        <v>24.23253286108393</v>
+        <v>23.21114683004198</v>
       </c>
       <c r="E205">
-        <v>24.26474293824354</v>
+        <v>24.54146530484711</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>23.70654044280878</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>23.7351647265943</v>
+        <v>23.21184741617169</v>
       </c>
       <c r="C206">
-        <v>23.95390142863473</v>
+        <v>24.08060204843491</v>
       </c>
       <c r="D206">
-        <v>24.10336933285309</v>
+        <v>23.08624742985538</v>
       </c>
       <c r="E206">
-        <v>24.13554718526586</v>
+        <v>24.41405098854965</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>23.57920098987956</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>23.61036504711499</v>
+        <v>23.08603250490307</v>
       </c>
       <c r="C207">
-        <v>23.82501637874373</v>
+        <v>23.95275623174405</v>
       </c>
       <c r="D207">
-        <v>23.97433492193611</v>
+        <v>22.96148938708964</v>
       </c>
       <c r="E207">
-        <v>24.00648058370787</v>
+        <v>24.28676847362476</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>23.45198492425143</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>23.48570701763756</v>
+        <v>22.960340031059</v>
       </c>
       <c r="C208">
-        <v>23.69626017300645</v>
+        <v>23.82504402703529</v>
       </c>
       <c r="D208">
-        <v>23.84542949989151</v>
+        <v>22.83687272572188</v>
       </c>
       <c r="E208">
-        <v>23.87754300493801</v>
+        <v>24.15961770818638</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>23.32489216819072</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>23.36119078057686</v>
+        <v>22.83476990350033</v>
       </c>
       <c r="C209">
-        <v>23.56763268290484</v>
+        <v>23.69746535893673</v>
       </c>
       <c r="D209">
-        <v>23.7166529383785</v>
+        <v>22.71239747148091</v>
       </c>
       <c r="E209">
-        <v>23.74873432043825</v>
+        <v>24.0325986407726</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>23.19792264214614</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>23.23681647541718</v>
+        <v>22.70932202993618</v>
       </c>
       <c r="C210">
-        <v>23.43913378005044</v>
+        <v>23.57002015289006</v>
       </c>
       <c r="D210">
-        <v>23.58800510915955</v>
+        <v>22.58806365188118</v>
       </c>
       <c r="E210">
-        <v>23.62005440180567</v>
+        <v>23.90571122022545</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>23.07107626607777</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>23.1125842390336</v>
+        <v>22.58399631654385</v>
       </c>
       <c r="C211">
-        <v>23.31076333618451</v>
+        <v>23.44270833514286</v>
       </c>
       <c r="D211">
-        <v>23.45948588410279</v>
+        <v>22.46387129633294</v>
       </c>
       <c r="E211">
-        <v>23.49150312075384</v>
+        <v>23.77895539576292</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>22.94435295872455</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>22.98849420599842</v>
+        <v>22.45879266911589</v>
       </c>
       <c r="C212">
-        <v>23.18252122317818</v>
+        <v>23.31552983277415</v>
       </c>
       <c r="D212">
-        <v>23.33109513518418</v>
+        <v>22.33982043616529</v>
       </c>
       <c r="E212">
-        <v>23.36308034911401</v>
+        <v>23.65233111714251</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>22.81775263736101</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>22.86454650887007</v>
+        <v>22.3337109926952</v>
       </c>
       <c r="C213">
-        <v>23.05440731303256</v>
+        <v>23.18848457371575</v>
       </c>
       <c r="D213">
-        <v>23.20283273448947</v>
+        <v>22.21591110472867</v>
       </c>
       <c r="E213">
-        <v>23.2347859588363</v>
+        <v>23.52583833453783</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>22.6912752187746</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>22.74074127846922</v>
+        <v>22.20875119131244</v>
       </c>
       <c r="C214">
-        <v>22.92642147787886</v>
+        <v>23.06157248677139</v>
       </c>
       <c r="D214">
-        <v>23.07469855421599</v>
+        <v>22.09214333743774</v>
       </c>
       <c r="E214">
-        <v>23.1066198219907</v>
+        <v>23.39947699876697</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>22.56492061875986</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>22.61707864414405</v>
+        <v>22.08391316775191</v>
       </c>
       <c r="C215">
-        <v>22.7985635899785</v>
+        <v>22.93479350163967</v>
       </c>
       <c r="D215">
-        <v>22.94669246667425</v>
+        <v>21.96851717185032</v>
       </c>
       <c r="E215">
-        <v>22.97858181076802</v>
+        <v>23.27324706122595</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>22.43868875200684</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>22.49355873402404</v>
+        <v>21.95919682492877</v>
       </c>
       <c r="C216">
-        <v>22.67083352172315</v>
+        <v>22.80814754892853</v>
       </c>
       <c r="D216">
-        <v>22.81881434428949</v>
+        <v>21.84503264772794</v>
       </c>
       <c r="E216">
-        <v>22.8506717974807</v>
+        <v>23.14714847393691</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>22.31257953265634</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>22.37018167526175</v>
+        <v>21.83460206490592</v>
       </c>
       <c r="C217">
-        <v>22.54323114563482</v>
+        <v>22.68163456017921</v>
       </c>
       <c r="D217">
-        <v>22.69106405960294</v>
+        <v>21.72168980710147</v>
       </c>
       <c r="E217">
-        <v>22.72288965456365</v>
+        <v>23.02118118967716</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>22.18659287411975</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>22.2469475942645</v>
+        <v>21.71012878853143</v>
       </c>
       <c r="C218">
-        <v>22.41575633436598</v>
+        <v>22.55525446788863</v>
       </c>
       <c r="D218">
-        <v>22.56344148527313</v>
+        <v>21.59848869433582</v>
       </c>
       <c r="E218">
-        <v>22.59523525457489</v>
+        <v>22.89534516190261</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>22.06072868891545</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>22.12385661691692</v>
+        <v>21.58577689656022</v>
       </c>
       <c r="C219">
-        <v>22.28840896069952</v>
+        <v>22.42900720552332</v>
       </c>
       <c r="D219">
-        <v>22.43594649407697</v>
+        <v>21.47542935619262</v>
       </c>
       <c r="E219">
-        <v>22.4677084701962</v>
+        <v>22.76964034490199</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>21.93498688904758</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>22.00090886879505</v>
+        <v>21.46154628924601</v>
       </c>
       <c r="C220">
-        <v>22.16118889754885</v>
+        <v>22.30289270754436</v>
       </c>
       <c r="D220">
-        <v>22.30857895891077</v>
+        <v>21.35251184189459</v>
       </c>
       <c r="E220">
-        <v>22.34030917423375</v>
+        <v>22.64406669377468</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>21.80936738598318</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>21.87810447537244</v>
+        <v>21.33743686619038</v>
       </c>
       <c r="C221">
-        <v>22.03409601795795</v>
+        <v>22.17691090943696</v>
       </c>
       <c r="D221">
-        <v>22.1813387527912</v>
+        <v>21.22973620318945</v>
       </c>
       <c r="E221">
-        <v>22.21303723961855</v>
+        <v>22.51862416446668</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>21.68387009046132</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>21.7554435622183</v>
+        <v>21.21344852628877</v>
       </c>
       <c r="C222">
-        <v>21.90713019510137</v>
+        <v>22.0510617477121</v>
       </c>
       <c r="D222">
-        <v>22.05422574885612</v>
+        <v>21.10710249441383</v>
       </c>
       <c r="E222">
-        <v>22.08589253940701</v>
+        <v>22.39331271386246</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>21.55849491275129</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>21.63292625518898</v>
+        <v>21.08958116835515</v>
       </c>
       <c r="C223">
-        <v>21.7802913022843</v>
+        <v>21.92534515994074</v>
       </c>
       <c r="D223">
-        <v>21.92723982036538</v>
+        <v>20.9846107725569</v>
       </c>
       <c r="E223">
-        <v>21.95887494678132</v>
+        <v>22.2681322997592</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>21.43324176273826</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>21.51055268061307</v>
+        <v>20.965834690695</v>
       </c>
       <c r="C224">
-        <v>21.65357921294259</v>
+        <v>21.79976108479306</v>
       </c>
       <c r="D224">
-        <v>21.8003808407015</v>
+        <v>20.86226109732354</v>
       </c>
       <c r="E224">
-        <v>21.83198433504991</v>
+        <v>22.1430828809602</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>21.30811054973045</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>21.38832296547061</v>
+        <v>20.84220899104886</v>
       </c>
       <c r="C225">
-        <v>21.52699380064273</v>
+        <v>21.67430946202137</v>
       </c>
       <c r="D225">
-        <v>21.67364868337037</v>
+        <v>20.74005353119739</v>
       </c>
       <c r="E225">
-        <v>21.70522057764777</v>
+        <v>22.01816441728597</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>21.1831011826122</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>21.26623723756684</v>
+        <v>20.71870396696192</v>
       </c>
       <c r="C226">
-        <v>21.40053493908194</v>
+        <v>21.54899023250795</v>
       </c>
       <c r="D226">
-        <v>21.54704322200181</v>
+        <v>20.61798813950359</v>
       </c>
       <c r="E226">
-        <v>21.57858354813681</v>
+        <v>21.89337686960496</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>21.05821356999773</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>21.14429562570084</v>
+        <v>20.5953195156772</v>
       </c>
       <c r="C227">
-        <v>21.27420250208815</v>
+        <v>21.42380333831153</v>
       </c>
       <c r="D227">
-        <v>21.42056433035013</v>
+        <v>20.49606499047121</v>
       </c>
       <c r="E227">
-        <v>21.45207312020617</v>
+        <v>21.7687201999009</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>20.93344762006037</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>21.0224982598297</v>
+        <v>20.47205553407516</v>
       </c>
       <c r="C228">
-        <v>21.14799636362004</v>
+        <v>21.29874872263554</v>
       </c>
       <c r="D228">
-        <v>21.29421188229462</v>
+        <v>20.3742841552952</v>
       </c>
       <c r="E228">
-        <v>21.32568916767249</v>
+        <v>21.64419437127657</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>20.8088032406121</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>20.90084527122838</v>
+        <v>20.34891191862895</v>
       </c>
       <c r="C229">
-        <v>21.02191639776702</v>
+        <v>21.17382632988693</v>
       </c>
       <c r="D229">
-        <v>21.16798575184005</v>
+        <v>20.25264570819797</v>
       </c>
       <c r="E229">
-        <v>21.1994315644802</v>
+        <v>21.51979934801614</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>20.68428033927664</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>20.77933679264583</v>
+        <v>20.22588856577604</v>
       </c>
       <c r="C230">
-        <v>20.89596247874931</v>
+        <v>21.04903610572777</v>
       </c>
       <c r="D230">
-        <v>21.04188581311704</v>
+        <v>20.13114972649065</v>
       </c>
       <c r="E230">
-        <v>21.07330018470173</v>
+        <v>21.39553509561235</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>20.5598788233522</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>20.65797295845759</v>
+        <v>20.10298537167469</v>
       </c>
       <c r="C231">
-        <v>20.77013448091791</v>
+        <v>20.9243779970347</v>
       </c>
       <c r="D231">
-        <v>20.91591194038253</v>
+        <v>20.00979629063429</v>
       </c>
       <c r="E231">
-        <v>20.94729490253776</v>
+        <v>21.27140158079906</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>20.43559859984613</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>20.53675390481513</v>
+        <v>19.98020223206607</v>
       </c>
       <c r="C232">
-        <v>20.64443227875462</v>
+        <v>20.79985195196499</v>
       </c>
       <c r="D232">
-        <v>20.79006400802003</v>
+        <v>19.88858548430108</v>
       </c>
       <c r="E232">
-        <v>20.82141559231738</v>
+        <v>21.14739877160004</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>20.31143957564691</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>20.41567976979244</v>
+        <v>19.85753904266264</v>
       </c>
       <c r="C233">
-        <v>20.5188557468721</v>
+        <v>20.67545792001414</v>
       </c>
       <c r="D233">
-        <v>20.66434189054007</v>
+        <v>19.76751739443616</v>
       </c>
       <c r="E233">
-        <v>20.69566212849836</v>
+        <v>21.02352663735759</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>20.18740165741247</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>20.29475069353006</v>
+        <v>19.7349956990173</v>
       </c>
       <c r="C234">
-        <v>20.39340476001383</v>
+        <v>20.5511958519673</v>
       </c>
       <c r="D234">
-        <v>20.53874546258042</v>
+        <v>19.64659211132028</v>
       </c>
       <c r="E234">
-        <v>20.57003438566725</v>
+        <v>20.89978514877332</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>20.06348475157529</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>20.17396681837683</v>
+        <v>19.61257209646013</v>
       </c>
       <c r="C235">
-        <v>20.26807919305419</v>
+        <v>20.42706569997209</v>
       </c>
       <c r="D235">
-        <v>20.41327459890645</v>
+        <v>19.5258097286341</v>
       </c>
       <c r="E235">
-        <v>20.44453223853959</v>
+        <v>20.77617427794608</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>19.93968876451499</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>20.05332828902966</v>
+        <v>19.49026813005987</v>
       </c>
       <c r="C236">
-        <v>20.14287892099847</v>
+        <v>20.30306741760462</v>
       </c>
       <c r="D236">
-        <v>20.28792917441134</v>
+        <v>19.40517034352482</v>
       </c>
       <c r="E236">
-        <v>20.31915556196003</v>
+        <v>20.65269399841188</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>19.81601360246015</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>19.93283525267156</v>
+        <v>19.36808369493268</v>
       </c>
       <c r="C237">
-        <v>20.01780381898284</v>
+        <v>20.17920095980987</v>
       </c>
       <c r="D237">
-        <v>20.16270906411635</v>
+        <v>19.28467405667518</v>
       </c>
       <c r="E237">
-        <v>20.19390423090256</v>
+        <v>20.52934428517624</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>19.69245917147523</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>19.81248785910819</v>
+        <v>19.24601868603013</v>
       </c>
       <c r="C238">
-        <v>19.89285376227445</v>
+        <v>20.05546628298395</v>
       </c>
       <c r="D238">
-        <v>20.03761414317107</v>
+        <v>19.16432097237621</v>
       </c>
       <c r="E238">
-        <v>20.06877812047053</v>
+        <v>20.4061251147638</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>19.56902537762973</v>
       </c>
     </row>
   </sheetData>
